--- a/data/derived_data/Snake River IPTDS Prioritization 20230606.xlsx
+++ b/data/derived_data/Snake River IPTDS Prioritization 20230606.xlsx
@@ -1,28 +1,789 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\data\derived_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8189FD-B27B-47EE-9F0D-90CD6A86C94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="54600" yWindow="-2385" windowWidth="25800" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId1"/>
+    <sheet name="IPTDS_Sites" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AD1E88B1-2F92-43B6-B7DA-1FC5E172D563}</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{AD1E88B1-2F92-43B6-B7DA-1FC5E172D563}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Update if/when new map is created.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="223">
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>chnk_trt_popid</t>
+  </si>
+  <si>
+    <t>sthd_trt_popid</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>The primary page of this spreadsheet is IPTDS_Sites. The page is intended to capture all sites within the Snake River basin, including site metadata, and information on the site's ability to meet co-manager and regional needs. Various management use categories (draft) are listed below, along with definitions that could be used to asses each site and prioritize their funding for continued use, operations, and maintenance.</t>
+  </si>
+  <si>
+    <t>Web Based Map URL:</t>
+  </si>
+  <si>
+    <t>https://nptfisheries.shinyapps.io/iptds-planning/</t>
+  </si>
+  <si>
+    <t>To Do:</t>
+  </si>
+  <si>
+    <t>Update IP percentages</t>
+  </si>
+  <si>
+    <t>Finalize evaluation categories, values within each, and definitions</t>
+  </si>
+  <si>
+    <t>Double check, sites, funding sources, etc.</t>
+  </si>
+  <si>
+    <t>Add metrics for reliability, operational times, and cost of operations</t>
+  </si>
+  <si>
+    <t>JB and EC added some local knowledge values that seem more realistic of the % of the population to return to each site</t>
+  </si>
+  <si>
+    <t>JB and EC: Complete for Tucannon, and updated the Metadata and Data Sites pages</t>
+  </si>
+  <si>
+    <t>JB and EC: Added some columns to consider</t>
+  </si>
+  <si>
+    <t>Evaluation Categories:</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Adult Status and Trends (Abundance)</t>
+  </si>
+  <si>
+    <t>Life Cycle Monitoring</t>
+  </si>
+  <si>
+    <t>Habitat Action Effectiveness</t>
+  </si>
+  <si>
+    <t>Hatchery Evaluation Monitoring</t>
+  </si>
+  <si>
+    <t>Tier 1 - Critical</t>
+  </si>
+  <si>
+    <t>Tier 2 - Redundancy</t>
+  </si>
+  <si>
+    <t>Tier 3 - Spatial Distribution</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>IMW</t>
+  </si>
+  <si>
+    <t>other (Project Number)</t>
+  </si>
+  <si>
+    <t>Juvenile and Adult</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Off-Route Stray</t>
+  </si>
+  <si>
+    <t>minimum number of sites (i.e., locations) necessary to get an unbiased detection probability at the lowest point in population tributaries which cover all ICTRT major population spawning areas, and at least 80% (what's the magic number) of available spawning habitat</t>
+  </si>
+  <si>
+    <t>sites located immediately upstream of critical locations, which provide unbiased observations to increase estimate precision, reduce potential and magnitude of bias, and protect against time-series data loss</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">locations upstream of critical or redundant sites, or in tributaries with less than 5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of the total population spawning habitat</t>
+    </r>
+  </si>
+  <si>
+    <t>paired with juvenile trap at the population level and allows for fish-in and fish-out monitoring.</t>
+  </si>
+  <si>
+    <t>paired with a juvenile trap at the sub-population level</t>
+  </si>
+  <si>
+    <t>not paired with a juvenile trap.</t>
+  </si>
+  <si>
+    <t>possibly in the future</t>
+  </si>
+  <si>
+    <t>placed within an IMW</t>
+  </si>
+  <si>
+    <t>habitat restoration project</t>
+  </si>
+  <si>
+    <t>juvenile hatchery releases occur upstream of the site, and returning adults should pass the site</t>
+  </si>
+  <si>
+    <t>only adults may pass the site (upstream of juvenile releases)</t>
+  </si>
+  <si>
+    <t>off the main migration cooridor for hatchery juveniles or returning adults</t>
+  </si>
+  <si>
+    <t>IPTDS_Sites Metadata:</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>subbasin</t>
+  </si>
+  <si>
+    <t>LAP</t>
+  </si>
+  <si>
+    <t>SWT</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>KHS</t>
+  </si>
+  <si>
+    <t>BBA</t>
+  </si>
+  <si>
+    <t>PCM</t>
+  </si>
+  <si>
+    <t>HLM</t>
+  </si>
+  <si>
+    <t>EPR</t>
+  </si>
+  <si>
+    <t>JA1</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
+  <si>
+    <t>LRL</t>
+  </si>
+  <si>
+    <t>LRU</t>
+  </si>
+  <si>
+    <t>LC1</t>
+  </si>
+  <si>
+    <t>LC2</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>SC2</t>
+  </si>
+  <si>
+    <t>SC3</t>
+  </si>
+  <si>
+    <t>SC4</t>
+  </si>
+  <si>
+    <t>CRA</t>
+  </si>
+  <si>
+    <t>JOC</t>
+  </si>
+  <si>
+    <t>WEN</t>
+  </si>
+  <si>
+    <t>UGR</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>CCW</t>
+  </si>
+  <si>
+    <t>UGS</t>
+  </si>
+  <si>
+    <t>WR1</t>
+  </si>
+  <si>
+    <t>MR1</t>
+  </si>
+  <si>
+    <t>WR2</t>
+  </si>
+  <si>
+    <t>COC</t>
+  </si>
+  <si>
+    <t>IR1</t>
+  </si>
+  <si>
+    <t>IR2</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>BSC</t>
+  </si>
+  <si>
+    <t>IR3</t>
+  </si>
+  <si>
+    <t>GCM</t>
+  </si>
+  <si>
+    <t>CZY</t>
+  </si>
+  <si>
+    <t>IR4</t>
+  </si>
+  <si>
+    <t>IML</t>
+  </si>
+  <si>
+    <t>IR5</t>
+  </si>
+  <si>
+    <t>TAY</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>SFG</t>
+  </si>
+  <si>
+    <t>KRS</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>YPP</t>
+  </si>
+  <si>
+    <t>ZEN</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>AFC</t>
+  </si>
+  <si>
+    <t>LTR</t>
+  </si>
+  <si>
+    <t>MTR</t>
+  </si>
+  <si>
+    <t>UTR</t>
+  </si>
+  <si>
+    <t>TFH</t>
+  </si>
+  <si>
+    <t>TPJ</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>LLR</t>
+  </si>
+  <si>
+    <t>LRW</t>
+  </si>
+  <si>
+    <t>HYC</t>
+  </si>
+  <si>
+    <t>EVL</t>
+  </si>
+  <si>
+    <t>EVU</t>
+  </si>
+  <si>
+    <t>BHC</t>
+  </si>
+  <si>
+    <t>WPC</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>AGC</t>
+  </si>
+  <si>
+    <t>LLS</t>
+  </si>
+  <si>
+    <t>LB8</t>
+  </si>
+  <si>
+    <t>LBS</t>
+  </si>
+  <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>BTL</t>
+  </si>
+  <si>
+    <t>BTM</t>
+  </si>
+  <si>
+    <t>BTU</t>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>WB1</t>
+  </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>USE</t>
+  </si>
+  <si>
+    <t>USI</t>
+  </si>
+  <si>
+    <t>YFK</t>
+  </si>
+  <si>
+    <t>VC2</t>
+  </si>
+  <si>
+    <t>VC1</t>
+  </si>
+  <si>
+    <t>RFL</t>
+  </si>
+  <si>
+    <t>Lapwai Creek</t>
+  </si>
+  <si>
+    <t>Sweetwater Creek</t>
+  </si>
+  <si>
+    <t>Mission Creek</t>
+  </si>
+  <si>
+    <t>Webb Creek</t>
+  </si>
+  <si>
+    <t>Potlatch River</t>
+  </si>
+  <si>
+    <t>Big Bear Creek</t>
+  </si>
+  <si>
+    <t>Pine Creek</t>
+  </si>
+  <si>
+    <t>East Fork Potlatch River</t>
+  </si>
+  <si>
+    <t>Jacks Creek</t>
+  </si>
+  <si>
+    <t>Clear Creek</t>
+  </si>
+  <si>
+    <t>Lochsa River</t>
+  </si>
+  <si>
+    <t>Lolo Creek</t>
+  </si>
+  <si>
+    <t>Selway River</t>
+  </si>
+  <si>
+    <t>South Fork Clearwater River</t>
+  </si>
+  <si>
+    <t>Crooked River</t>
+  </si>
+  <si>
+    <t>Joseph Creek</t>
+  </si>
+  <si>
+    <t>Wenaha River</t>
+  </si>
+  <si>
+    <t>Grande Ronde River</t>
+  </si>
+  <si>
+    <t>Catherine Creek</t>
+  </si>
+  <si>
+    <t>Upper Grande Ronde River</t>
+  </si>
+  <si>
+    <t>Wallowa River</t>
+  </si>
+  <si>
+    <t>Minam River</t>
+  </si>
+  <si>
+    <t>Cow Creek</t>
+  </si>
+  <si>
+    <t>Imnaha River</t>
+  </si>
+  <si>
+    <t>Camp Creek</t>
+  </si>
+  <si>
+    <t>Big Sheep Creek</t>
+  </si>
+  <si>
+    <t>Grouse Creek</t>
+  </si>
+  <si>
+    <t>Crazyman Creek</t>
+  </si>
+  <si>
+    <t>Big Creek</t>
+  </si>
+  <si>
+    <t>Marsh Creek</t>
+  </si>
+  <si>
+    <t>South Fork Salmon River</t>
+  </si>
+  <si>
+    <t>East Fork South Fork Salmon River</t>
+  </si>
+  <si>
+    <t>Secesh River</t>
+  </si>
+  <si>
+    <t>Asotin Creek</t>
+  </si>
+  <si>
+    <t>Charlie Creek</t>
+  </si>
+  <si>
+    <t>Tucannon River</t>
+  </si>
+  <si>
+    <t>Carmen Creek</t>
+  </si>
+  <si>
+    <t>Lower Lemhi River</t>
+  </si>
+  <si>
+    <t>Upper Lemhi River</t>
+  </si>
+  <si>
+    <t>Hayden Creek</t>
+  </si>
+  <si>
+    <t>Bohannon Creek</t>
+  </si>
+  <si>
+    <t>Whimpy Creek</t>
+  </si>
+  <si>
+    <t>Kenney Creek</t>
+  </si>
+  <si>
+    <t>Agency Creek</t>
+  </si>
+  <si>
+    <t>Little Lemhi Springs Creek</t>
+  </si>
+  <si>
+    <t>Big 18-Mile Creek</t>
+  </si>
+  <si>
+    <t>Big Springs Creek</t>
+  </si>
+  <si>
+    <t>Lee Creek</t>
+  </si>
+  <si>
+    <t>Big Timber Creek</t>
+  </si>
+  <si>
+    <t>Canyon Creek</t>
+  </si>
+  <si>
+    <t>18-Mile Creek/Hawley Creek</t>
+  </si>
+  <si>
+    <t>White Bird Creek</t>
+  </si>
+  <si>
+    <t>North Fork Salmon River</t>
+  </si>
+  <si>
+    <t>Panther Cr.</t>
+  </si>
+  <si>
+    <t>Upper Salmon River</t>
+  </si>
+  <si>
+    <t>Yankee Fork Creek</t>
+  </si>
+  <si>
+    <t>Valley Creek</t>
+  </si>
+  <si>
+    <t>Redfish Lake Creek</t>
+  </si>
+  <si>
+    <t>Clearwater</t>
+  </si>
+  <si>
+    <t>CRLMA-s</t>
+  </si>
+  <si>
+    <t>CRLOC-s</t>
+  </si>
+  <si>
+    <t>CRLOL-s</t>
+  </si>
+  <si>
+    <t>CRSEL-s</t>
+  </si>
+  <si>
+    <t>CRSFC-s</t>
+  </si>
+  <si>
+    <t>GRJOS-s</t>
+  </si>
+  <si>
+    <t>GRLMT-s</t>
+  </si>
+  <si>
+    <t>GRUMA-s</t>
+  </si>
+  <si>
+    <t>GRWAL-s</t>
+  </si>
+  <si>
+    <t>IRMAI-s</t>
+  </si>
+  <si>
+    <t>MFBIG-s</t>
+  </si>
+  <si>
+    <t>MFUMA-s</t>
+  </si>
+  <si>
+    <t>SFMAI-s</t>
+  </si>
+  <si>
+    <t>SFSEC-s</t>
+  </si>
+  <si>
+    <t>SNASO-s</t>
+  </si>
+  <si>
+    <t>SNTUC-s</t>
+  </si>
+  <si>
+    <t>SRLEM-s</t>
+  </si>
+  <si>
+    <t>SRLSR-s</t>
+  </si>
+  <si>
+    <t>SRNFS-s</t>
+  </si>
+  <si>
+    <t>SRPAN-s</t>
+  </si>
+  <si>
+    <t>SRPAH-s</t>
+  </si>
+  <si>
+    <t>SRUMA-s</t>
+  </si>
+  <si>
+    <t>Grande Ronde</t>
+  </si>
+  <si>
+    <t>Imnaha</t>
+  </si>
+  <si>
+    <t>chnk_esu</t>
+  </si>
+  <si>
+    <t>sthd_dps</t>
+  </si>
+  <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>lower Snake</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +798,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,14 +806,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +964,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mike Ackerman" id="{B892FBF5-7069-439C-8059-328656C6D0E9}" userId="S::MikeA@nezperce.org::0b47ff0e-31f3-4b4d-8b78-4e8868867499" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -329,14 +1233,1594 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C4" dT="2023-06-06T17:06:59.64" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{AD1E88B1-2F92-43B6-B7DA-1FC5E172D563}">
+    <text>Update if/when new map is created.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A42020D-9532-4D3F-8F80-EE8C6D0895CA}">
+  <dimension ref="B1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17"/>
+      <c r="C15" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="11"/>
+      <c r="C23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{58668A7B-6A3A-40D1-9FDB-FE6C0D159D85}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="G2" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="G3" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="G4" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="G6" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="G8" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="G9" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="G11" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="G13" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="G14" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="G15" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="G16" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="G17" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="G18" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="G19" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="G20" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="G21" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="G22" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="G23" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="G24" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="G25" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="G26" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="G27" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="G28" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="G29" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="G30" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="G31" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="G32" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="G33" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="G34" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="G35" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="G36" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="G37" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="G38" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="G39" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="G40" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="G41" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="G42" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="G43" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="G44" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="G45" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="G46" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="G47" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="G48" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="G49" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="G50" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="G51" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="G52" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="G53" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="G54" s="29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="G55" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="G56" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="G57" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="G58" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="G59" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="G60" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="G61" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="G62" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="G63" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="G64" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="G65" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="G66" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="G67" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="G68" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="G69" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="G70" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="29"/>
+      <c r="G71" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="G72" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="G73" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="G74" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="G75" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="G76" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="G77" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="29"/>
+      <c r="G78" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="G79" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="G80" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="G81" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="29"/>
+      <c r="G82" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="G83" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="G84" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="G85" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="29"/>
+      <c r="G86" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="G87" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" s="29"/>
+      <c r="G88" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>